--- a/SalesSummary.xlsx
+++ b/SalesSummary.xlsx
@@ -401,54 +401,6 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" customWidth="1"/>
-    <col min="21" max="21" width="15.83203125" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" customWidth="1"/>
-    <col min="24" max="24" width="15.83203125" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" customWidth="1"/>
-    <col min="27" max="27" width="15.83203125" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" customWidth="1"/>
-    <col min="29" max="29" width="10.83203125" customWidth="1"/>
-    <col min="30" max="30" width="15.83203125" customWidth="1"/>
-    <col min="31" max="31" width="10.83203125" customWidth="1"/>
-    <col min="32" max="32" width="10.83203125" customWidth="1"/>
-    <col min="33" max="33" width="15.83203125" customWidth="1"/>
-    <col min="34" max="34" width="10.83203125" customWidth="1"/>
-    <col min="35" max="35" width="10.83203125" customWidth="1"/>
-    <col min="36" max="36" width="15.83203125" customWidth="1"/>
-    <col min="37" max="37" width="10.83203125" customWidth="1"/>
-    <col min="38" max="38" width="10.83203125" customWidth="1"/>
-    <col min="39" max="39" width="15.83203125" customWidth="1"/>
-    <col min="40" max="40" width="10.83203125" customWidth="1"/>
-    <col min="41" max="41" width="10.83203125" customWidth="1"/>
-    <col min="42" max="42" width="15.83203125" customWidth="1"/>
-    <col min="43" max="43" width="10.83203125" customWidth="1"/>
-    <col min="44" max="44" width="10.83203125" customWidth="1"/>
-    <col min="45" max="45" width="15.83203125" customWidth="1"/>
-    <col min="46" max="46" width="10.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">

--- a/SalesSummary.xlsx
+++ b/SalesSummary.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
@@ -816,13 +816,13 @@
         <v>160.46</v>
       </c>
       <c r="AF3">
-        <v>38030</v>
+        <v>37950</v>
       </c>
       <c r="AG3">
-        <v>3715950</v>
+        <v>3698350</v>
       </c>
       <c r="AH3" t="str">
-        <v>97.71</v>
+        <v>97.45</v>
       </c>
       <c r="AI3">
         <v>3436</v>
@@ -852,18 +852,158 @@
         <v/>
       </c>
       <c r="AR3">
-        <v>41466</v>
+        <v>41386</v>
       </c>
       <c r="AS3">
-        <v>3750310</v>
+        <v>3732710</v>
       </c>
       <c r="AT3" t="str">
-        <v>90.44</v>
+        <v>90.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>May-24</v>
+      </c>
+      <c r="B4">
+        <v>53859.21</v>
+      </c>
+      <c r="C4">
+        <v>14054692</v>
+      </c>
+      <c r="D4" t="str">
+        <v>260.95</v>
+      </c>
+      <c r="E4">
+        <v>41654.76</v>
+      </c>
+      <c r="F4">
+        <v>10900743.2</v>
+      </c>
+      <c r="G4" t="str">
+        <v>261.69</v>
+      </c>
+      <c r="H4">
+        <v>10.02</v>
+      </c>
+      <c r="I4">
+        <v>6750</v>
+      </c>
+      <c r="J4" t="str">
+        <v>673.65</v>
+      </c>
+      <c r="K4">
+        <v>9050</v>
+      </c>
+      <c r="L4">
+        <v>1190125</v>
+      </c>
+      <c r="M4" t="str">
+        <v>131.51</v>
+      </c>
+      <c r="N4">
+        <v>104573.99</v>
+      </c>
+      <c r="O4">
+        <v>26152310.2</v>
+      </c>
+      <c r="P4" t="str">
+        <v>250.08</v>
+      </c>
+      <c r="Q4">
+        <v>298.25</v>
+      </c>
+      <c r="R4">
+        <v>70710</v>
+      </c>
+      <c r="S4" t="str">
+        <v>237.08</v>
+      </c>
+      <c r="T4">
+        <v>42.9</v>
+      </c>
+      <c r="U4">
+        <v>10400</v>
+      </c>
+      <c r="V4" t="str">
+        <v>242.42</v>
+      </c>
+      <c r="W4">
+        <v>2141.45</v>
+      </c>
+      <c r="X4">
+        <v>489460.69999999995</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>228.57</v>
+      </c>
+      <c r="Z4">
+        <v>6605</v>
+      </c>
+      <c r="AA4">
+        <v>978441</v>
+      </c>
+      <c r="AB4" t="str">
+        <v>148.14</v>
+      </c>
+      <c r="AC4">
+        <v>9087.6</v>
+      </c>
+      <c r="AD4">
+        <v>1549011.7</v>
+      </c>
+      <c r="AE4" t="str">
+        <v>170.45</v>
+      </c>
+      <c r="AF4">
+        <v>54225</v>
+      </c>
+      <c r="AG4">
+        <v>5235425</v>
+      </c>
+      <c r="AH4" t="str">
+        <v>96.55</v>
+      </c>
+      <c r="AI4">
+        <v>4134</v>
+      </c>
+      <c r="AJ4">
+        <v>41340</v>
+      </c>
+      <c r="AK4" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="AL4" t="str">
+        <v/>
+      </c>
+      <c r="AM4" t="str">
+        <v/>
+      </c>
+      <c r="AN4" t="str">
+        <v/>
+      </c>
+      <c r="AO4" t="str">
+        <v/>
+      </c>
+      <c r="AP4" t="str">
+        <v/>
+      </c>
+      <c r="AQ4" t="str">
+        <v/>
+      </c>
+      <c r="AR4">
+        <v>58359</v>
+      </c>
+      <c r="AS4">
+        <v>5276765</v>
+      </c>
+      <c r="AT4" t="str">
+        <v>90.42</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AT3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AT4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/SalesSummary.xlsx
+++ b/SalesSummary.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
@@ -723,25 +723,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Apr-24</v>
+        <v>Jan-25</v>
       </c>
       <c r="B3">
-        <v>44642.14</v>
+        <v>53144.26</v>
       </c>
       <c r="C3">
-        <v>11657145</v>
+        <v>13667370</v>
       </c>
       <c r="D3" t="str">
-        <v>261.12</v>
+        <v>257.17</v>
       </c>
       <c r="E3">
-        <v>37538.47</v>
+        <v>62641.39</v>
       </c>
       <c r="F3">
-        <v>9408730</v>
+        <v>16179401.5</v>
       </c>
       <c r="G3" t="str">
-        <v>250.64</v>
+        <v>258.29</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -753,82 +753,82 @@
         <v/>
       </c>
       <c r="K3">
-        <v>7000</v>
+        <v>12275</v>
       </c>
       <c r="L3">
-        <v>926250</v>
+        <v>1624875</v>
       </c>
       <c r="M3" t="str">
-        <v>132.32</v>
+        <v>132.37</v>
       </c>
       <c r="N3">
-        <v>89180.61</v>
+        <v>128060.65</v>
       </c>
       <c r="O3">
-        <v>21992125</v>
+        <v>31471646.5</v>
       </c>
       <c r="P3" t="str">
-        <v>246.60</v>
+        <v>245.76</v>
       </c>
       <c r="Q3">
-        <v>1089.3</v>
+        <v>806</v>
       </c>
       <c r="R3">
-        <v>241286</v>
+        <v>177289</v>
       </c>
       <c r="S3" t="str">
-        <v>221.51</v>
+        <v>219.96</v>
       </c>
       <c r="T3">
-        <v>479</v>
+        <v>1203.25</v>
       </c>
       <c r="U3">
-        <v>121000</v>
+        <v>331336.5</v>
       </c>
       <c r="V3" t="str">
-        <v>252.61</v>
+        <v>275.37</v>
       </c>
       <c r="W3">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="X3">
-        <v>30942.5</v>
+        <v>54000</v>
       </c>
       <c r="Y3" t="str">
-        <v>247.54</v>
+        <v>180.00</v>
       </c>
       <c r="Z3">
-        <v>6074.6</v>
+        <v>7455.4</v>
       </c>
       <c r="AA3">
-        <v>853177.32</v>
+        <v>1233140.28</v>
       </c>
       <c r="AB3" t="str">
-        <v>140.45</v>
+        <v>165.40</v>
       </c>
       <c r="AC3">
-        <v>7767.900000000001</v>
+        <v>9764.65</v>
       </c>
       <c r="AD3">
-        <v>1246405.8199999998</v>
+        <v>1795765.78</v>
       </c>
       <c r="AE3" t="str">
-        <v>160.46</v>
+        <v>183.90</v>
       </c>
       <c r="AF3">
-        <v>37950</v>
+        <v>39000</v>
       </c>
       <c r="AG3">
-        <v>3698350</v>
+        <v>3730500</v>
       </c>
       <c r="AH3" t="str">
-        <v>97.45</v>
+        <v>95.65</v>
       </c>
       <c r="AI3">
-        <v>3436</v>
+        <v>5060</v>
       </c>
       <c r="AJ3">
-        <v>34360</v>
+        <v>50600</v>
       </c>
       <c r="AK3" t="str">
         <v>10.00</v>
@@ -852,158 +852,18 @@
         <v/>
       </c>
       <c r="AR3">
-        <v>41386</v>
+        <v>44060</v>
       </c>
       <c r="AS3">
-        <v>3732710</v>
+        <v>3781100</v>
       </c>
       <c r="AT3" t="str">
-        <v>90.19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>May-24</v>
-      </c>
-      <c r="B4">
-        <v>53859.21</v>
-      </c>
-      <c r="C4">
-        <v>14054692</v>
-      </c>
-      <c r="D4" t="str">
-        <v>260.95</v>
-      </c>
-      <c r="E4">
-        <v>41654.76</v>
-      </c>
-      <c r="F4">
-        <v>10900743.2</v>
-      </c>
-      <c r="G4" t="str">
-        <v>261.69</v>
-      </c>
-      <c r="H4">
-        <v>10.02</v>
-      </c>
-      <c r="I4">
-        <v>6750</v>
-      </c>
-      <c r="J4" t="str">
-        <v>673.65</v>
-      </c>
-      <c r="K4">
-        <v>9050</v>
-      </c>
-      <c r="L4">
-        <v>1190125</v>
-      </c>
-      <c r="M4" t="str">
-        <v>131.51</v>
-      </c>
-      <c r="N4">
-        <v>104573.99</v>
-      </c>
-      <c r="O4">
-        <v>26152310.2</v>
-      </c>
-      <c r="P4" t="str">
-        <v>250.08</v>
-      </c>
-      <c r="Q4">
-        <v>298.25</v>
-      </c>
-      <c r="R4">
-        <v>70710</v>
-      </c>
-      <c r="S4" t="str">
-        <v>237.08</v>
-      </c>
-      <c r="T4">
-        <v>42.9</v>
-      </c>
-      <c r="U4">
-        <v>10400</v>
-      </c>
-      <c r="V4" t="str">
-        <v>242.42</v>
-      </c>
-      <c r="W4">
-        <v>2141.45</v>
-      </c>
-      <c r="X4">
-        <v>489460.69999999995</v>
-      </c>
-      <c r="Y4" t="str">
-        <v>228.57</v>
-      </c>
-      <c r="Z4">
-        <v>6605</v>
-      </c>
-      <c r="AA4">
-        <v>978441</v>
-      </c>
-      <c r="AB4" t="str">
-        <v>148.14</v>
-      </c>
-      <c r="AC4">
-        <v>9087.6</v>
-      </c>
-      <c r="AD4">
-        <v>1549011.7</v>
-      </c>
-      <c r="AE4" t="str">
-        <v>170.45</v>
-      </c>
-      <c r="AF4">
-        <v>54225</v>
-      </c>
-      <c r="AG4">
-        <v>5235425</v>
-      </c>
-      <c r="AH4" t="str">
-        <v>96.55</v>
-      </c>
-      <c r="AI4">
-        <v>4134</v>
-      </c>
-      <c r="AJ4">
-        <v>41340</v>
-      </c>
-      <c r="AK4" t="str">
-        <v>10.00</v>
-      </c>
-      <c r="AL4" t="str">
-        <v/>
-      </c>
-      <c r="AM4" t="str">
-        <v/>
-      </c>
-      <c r="AN4" t="str">
-        <v/>
-      </c>
-      <c r="AO4" t="str">
-        <v/>
-      </c>
-      <c r="AP4" t="str">
-        <v/>
-      </c>
-      <c r="AQ4" t="str">
-        <v/>
-      </c>
-      <c r="AR4">
-        <v>58359</v>
-      </c>
-      <c r="AS4">
-        <v>5276765</v>
-      </c>
-      <c r="AT4" t="str">
-        <v>90.42</v>
+        <v>85.82</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AT4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AT3"/>
   </ignoredErrors>
 </worksheet>
 </file>